--- a/Linear regression/Datos.xlsx
+++ b/Linear regression/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joc_h\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353D8477-4FA6-4B86-A3F1-FB73DAEF74BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F9B6B6-5689-4812-ABE8-2823FD15BC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5EE6685D-EC8E-4572-BF88-E3ABB270D24D}"/>
   </bookViews>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0589962-3EDF-43A6-B930-3397E1F37482}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,28 +507,28 @@
         <v>428</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C26" si="0">LN(B3)</f>
+        <f t="shared" ref="C3:C36" si="0">LN(B3)</f>
         <v>6.0591231955817966</v>
       </c>
       <c r="D3">
         <v>378</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E26" si="1">LN(D3)</f>
+        <f t="shared" ref="E3:E36" si="1">LN(D3)</f>
         <v>5.934894195619588</v>
       </c>
       <c r="F3">
         <v>16</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G26" si="2">LN(F3)</f>
+        <f t="shared" ref="G3:G36" si="2">LN(F3)</f>
         <v>2.7725887222397811</v>
       </c>
       <c r="H3">
         <v>688.3</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I26" si="3">LN(H3)</f>
+        <f t="shared" ref="I3:I36" si="3">LN(H3)</f>
         <v>6.5342247894043188</v>
       </c>
     </row>
@@ -1289,6 +1289,336 @@
       <c r="I26">
         <f t="shared" si="3"/>
         <v>6.5696216630342583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2010</v>
+      </c>
+      <c r="B27">
+        <v>245.81</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>5.5045588797868898</v>
+      </c>
+      <c r="D27">
+        <v>228.77</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>5.4327171320276921</v>
+      </c>
+      <c r="F27">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G27">
+        <f>LN(F27)</f>
+        <v>2.8390784635086144</v>
+      </c>
+      <c r="H27">
+        <v>697.9</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>6.5480758260231058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2011</v>
+      </c>
+      <c r="B28">
+        <v>239.2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>5.4773000220764763</v>
+      </c>
+      <c r="D28">
+        <v>208.74</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>5.341089458391906</v>
+      </c>
+      <c r="F28">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>2.8564702062204832</v>
+      </c>
+      <c r="H28">
+        <v>782.6</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>6.6626217097763121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2012</v>
+      </c>
+      <c r="B29">
+        <v>114.6</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>4.7414478042806394</v>
+      </c>
+      <c r="D29">
+        <v>108.07</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>4.6827791653150745</v>
+      </c>
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>2.8332133440562162</v>
+      </c>
+      <c r="H29">
+        <v>568.9</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>6.3437046717566012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2013</v>
+      </c>
+      <c r="B30">
+        <v>105</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>4.6539603501575231</v>
+      </c>
+      <c r="D30">
+        <v>100.55</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>4.6106551162186609</v>
+      </c>
+      <c r="F30">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>2.8959119382717802</v>
+      </c>
+      <c r="H30">
+        <v>697.8</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>6.547932528752674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2014</v>
+      </c>
+      <c r="B31">
+        <v>104.2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>4.6463121293192664</v>
+      </c>
+      <c r="D31">
+        <v>93.86</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>4.5418043103662713</v>
+      </c>
+      <c r="F31">
+        <v>17.7</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>2.8735646395797834</v>
+      </c>
+      <c r="H31">
+        <v>615.6</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>6.4225974019647243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2015</v>
+      </c>
+      <c r="B32">
+        <v>107.4</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>4.6765601820747644</v>
+      </c>
+      <c r="D32">
+        <v>92.5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>4.5272086445183799</v>
+      </c>
+      <c r="F32">
+        <v>17.8</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>2.8791984572980396</v>
+      </c>
+      <c r="H32">
+        <v>491.8</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>6.1980721297820924</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2016</v>
+      </c>
+      <c r="B33">
+        <v>86.9</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>4.4647580322713463</v>
+      </c>
+      <c r="D33">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>4.2795785404630902</v>
+      </c>
+      <c r="F33">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>2.884800712846709</v>
+      </c>
+      <c r="H33">
+        <v>655.9</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>6.4860083382996896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2017</v>
+      </c>
+      <c r="B34">
+        <v>85.4</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>4.4473461007945243</v>
+      </c>
+      <c r="D34">
+        <v>84.31</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>4.4345004819345846</v>
+      </c>
+      <c r="F34">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>2.8903717578961645</v>
+      </c>
+      <c r="H34">
+        <v>488</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>6.1903154058531475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2018</v>
+      </c>
+      <c r="B35">
+        <v>74.75</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>4.3141492122707961</v>
+      </c>
+      <c r="D35">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>4.2470656492397643</v>
+      </c>
+      <c r="F35">
+        <v>17.8</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>2.8791984572980396</v>
+      </c>
+      <c r="H35">
+        <v>786.2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>6.6672112129877599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2019</v>
+      </c>
+      <c r="B36">
+        <v>76.69</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>4.3397713217767677</v>
+      </c>
+      <c r="D36">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>4.2391661467608408</v>
+      </c>
+      <c r="F36">
+        <v>18.8</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>2.9338568698359038</v>
+      </c>
+      <c r="H36">
+        <v>565.29999999999995</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>6.3373565636812454</v>
       </c>
     </row>
   </sheetData>
